--- a/data/Industry-Indices.xlsx
+++ b/data/Industry-Indices.xlsx
@@ -411,12 +411,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -430,27 +430,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7650169488000000</v>
+        <v>7650169488</v>
       </c>
       <c r="F2" t="n">
         <v>236046</v>
       </c>
       <c r="G2" t="n">
-        <v>2740000000</v>
+        <v>2740</v>
       </c>
       <c r="H2" t="n">
-        <v>10212891000000</v>
+        <v>10212891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -464,27 +464,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>269025262000000</v>
+        <v>269025262</v>
       </c>
       <c r="F3" t="n">
         <v>62425</v>
       </c>
       <c r="G3" t="n">
-        <v>1399000000</v>
+        <v>1399</v>
       </c>
       <c r="H3" t="n">
-        <v>2610194000000</v>
+        <v>2610194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -498,27 +498,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>644373421000000</v>
+        <v>644373421</v>
       </c>
       <c r="F4" t="n">
         <v>50274</v>
       </c>
       <c r="G4" t="n">
-        <v>1447000000</v>
+        <v>1447</v>
       </c>
       <c r="H4" t="n">
-        <v>1194232000000</v>
+        <v>1194232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -532,27 +532,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1900527339000000</v>
+        <v>1900527339</v>
       </c>
       <c r="F5" t="n">
         <v>20390</v>
       </c>
-      <c r="G5" t="n">
-        <v>172604000</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">172.604 </t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>989110000000</v>
+        <v>989110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -566,27 +568,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1389537365000000</v>
+        <v>1389537365</v>
       </c>
       <c r="F6" t="n">
         <v>15898</v>
       </c>
-      <c r="G6" t="n">
-        <v>112454000</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112.454 </t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>729291000000</v>
+        <v>729291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -600,27 +604,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>327414867000000</v>
+        <v>327414867</v>
       </c>
       <c r="F7" t="n">
         <v>15010</v>
       </c>
-      <c r="G7" t="n">
-        <v>90188000</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90.188 </t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>619402000000</v>
+        <v>619402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -634,27 +640,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>132475867000000</v>
+        <v>132475867</v>
       </c>
       <c r="F8" t="n">
         <v>16479</v>
       </c>
-      <c r="G8" t="n">
-        <v>141383000</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">141.383 </t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>602031000000</v>
+        <v>602031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -668,27 +676,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>152416614000000</v>
+        <v>152416614</v>
       </c>
       <c r="F9" t="n">
         <v>19931</v>
       </c>
-      <c r="G9" t="n">
-        <v>298003000</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298.003 </t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>579976000000</v>
+        <v>579976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -702,27 +712,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>234634329000000</v>
+        <v>234634329</v>
       </c>
       <c r="F10" t="n">
         <v>10125</v>
       </c>
-      <c r="G10" t="n">
-        <v>127488000</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">127.488 </t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>551518000000</v>
+        <v>551518</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -736,27 +748,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>244839872000000</v>
+        <v>244839872</v>
       </c>
       <c r="F11" t="n">
         <v>2738</v>
       </c>
-      <c r="G11" t="n">
-        <v>42805000</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42.805 </t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>513549000000</v>
+        <v>513549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -770,27 +784,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>796835303000000</v>
+        <v>796835303</v>
       </c>
       <c r="F12" t="n">
         <v>10137</v>
       </c>
-      <c r="G12" t="n">
-        <v>32724000</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32.724 </t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>436921000000</v>
+        <v>436921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -804,27 +820,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>58769609000000</v>
+        <v>58769609</v>
       </c>
       <c r="F13" t="n">
         <v>5850</v>
       </c>
-      <c r="G13" t="n">
-        <v>41629000</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41.629 </t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>404823000000</v>
+        <v>404823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -838,27 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>39352522000000</v>
+        <v>39352522</v>
       </c>
       <c r="F14" t="n">
         <v>9250</v>
       </c>
-      <c r="G14" t="n">
-        <v>40843000</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40.843 </t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>336782000000</v>
+        <v>336782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -872,27 +892,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>761443842000000</v>
+        <v>761443842</v>
       </c>
       <c r="F15" t="n">
         <v>11983</v>
       </c>
-      <c r="G15" t="n">
-        <v>70270000</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">70.270 </t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>328300000000</v>
+        <v>328300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -906,27 +928,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22727610000000</v>
+        <v>22727610</v>
       </c>
       <c r="F16" t="n">
         <v>8676</v>
       </c>
-      <c r="G16" t="n">
-        <v>168368000</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">168.368 </t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>271096000000</v>
+        <v>271096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -940,27 +964,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>95823366000000</v>
+        <v>95823366</v>
       </c>
       <c r="F17" t="n">
         <v>4472</v>
       </c>
-      <c r="G17" t="n">
-        <v>36102000</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.102 </t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>237861000000</v>
+        <v>237861</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -974,27 +1000,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>58429483000000</v>
+        <v>58429483</v>
       </c>
       <c r="F18" t="n">
         <v>6272</v>
       </c>
-      <c r="G18" t="n">
-        <v>37891000</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37.891 </t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>231235000000</v>
+        <v>231235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,27 +1036,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>437081000000000</v>
+        <v>437081000</v>
       </c>
       <c r="F19" t="n">
         <v>3757</v>
       </c>
-      <c r="G19" t="n">
-        <v>68575000</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68.575 </t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>200216000000</v>
+        <v>200216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1042,27 +1072,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>43630457000000</v>
+        <v>43630457</v>
       </c>
       <c r="F20" t="n">
         <v>6455</v>
       </c>
-      <c r="G20" t="n">
-        <v>88702000</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88.702 </t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>163857000000</v>
+        <v>163857</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1076,27 +1108,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>165223800000000</v>
+        <v>165223800</v>
       </c>
       <c r="F21" t="n">
         <v>2758</v>
       </c>
-      <c r="G21" t="n">
-        <v>24869000</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24.869 </t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>158853000000</v>
+        <v>158853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1110,27 +1144,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25372000000000</v>
+        <v>25372000</v>
       </c>
       <c r="F22" t="n">
         <v>2063</v>
       </c>
-      <c r="G22" t="n">
-        <v>24196000</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24.196 </t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>153477000000</v>
+        <v>153477</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1144,27 +1180,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33797691000000</v>
+        <v>33797691</v>
       </c>
       <c r="F23" t="n">
         <v>3553</v>
       </c>
-      <c r="G23" t="n">
-        <v>21118000</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21.118 </t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>152628000000</v>
+        <v>152628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1178,27 +1216,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29702528000000</v>
+        <v>29702528</v>
       </c>
       <c r="F24" t="n">
         <v>4777</v>
       </c>
-      <c r="G24" t="n">
-        <v>56331000</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56.331 </t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>150879000000</v>
+        <v>150879</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1212,27 +1252,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>96448191000000</v>
+        <v>96448191</v>
       </c>
       <c r="F25" t="n">
         <v>5880</v>
       </c>
-      <c r="G25" t="n">
-        <v>38844000</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38.844 </t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>141262000000</v>
+        <v>141262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1246,27 +1288,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40033876000000</v>
+        <v>40033876</v>
       </c>
       <c r="F26" t="n">
         <v>4669</v>
       </c>
-      <c r="G26" t="n">
-        <v>12820000</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12.820 </t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>139909000000</v>
+        <v>139909</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1280,27 +1324,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36108800000000</v>
+        <v>36108800</v>
       </c>
       <c r="F27" t="n">
         <v>2991</v>
       </c>
-      <c r="G27" t="n">
-        <v>47100000</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47.100 </t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>104581000000</v>
+        <v>104581</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1314,27 +1360,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11616352000000</v>
+        <v>11616352</v>
       </c>
       <c r="F28" t="n">
         <v>2535</v>
       </c>
-      <c r="G28" t="n">
-        <v>18037000</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18.037 </t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>77872000000</v>
+        <v>77872</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1348,27 +1396,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>76231900000000</v>
+        <v>76231900</v>
       </c>
       <c r="F29" t="n">
         <v>2975</v>
       </c>
-      <c r="G29" t="n">
-        <v>12208000</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12.208 </t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>69444000000</v>
+        <v>69444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1382,27 +1432,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>334939200000000</v>
+        <v>334939200</v>
       </c>
       <c r="F30" t="n">
         <v>2216</v>
       </c>
-      <c r="G30" t="n">
-        <v>27713000</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27.713 </t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>67117000000.00001</v>
+        <v>67117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1416,27 +1468,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19399846000000</v>
+        <v>19399846</v>
       </c>
       <c r="F31" t="n">
         <v>1230</v>
       </c>
-      <c r="G31" t="n">
-        <v>12571000</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12.571 </t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>46808000000</v>
+        <v>46808</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1450,27 +1504,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6219562000000</v>
+        <v>6219562</v>
       </c>
       <c r="F32" t="n">
         <v>1317</v>
       </c>
-      <c r="G32" t="n">
-        <v>4050000</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.050 </t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>41133000000</v>
+        <v>41133</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1484,27 +1540,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7747230000000</v>
+        <v>7747230</v>
       </c>
       <c r="F33" t="n">
         <v>657</v>
       </c>
-      <c r="G33" t="n">
-        <v>3840000</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.840 </t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>33343000000</v>
+        <v>33343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1518,27 +1576,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2114180000000</v>
+        <v>2114180</v>
       </c>
       <c r="F34" t="n">
         <v>639</v>
       </c>
-      <c r="G34" t="n">
-        <v>2203000</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.203 </t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>25174000000</v>
+        <v>25174</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1552,7 +1612,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41123000000000</v>
+        <v>41123000</v>
       </c>
       <c r="F35" t="n">
         <v>929</v>
@@ -1561,18 +1621,18 @@
         <v>561815</v>
       </c>
       <c r="H35" t="n">
-        <v>23104000000</v>
+        <v>23104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1586,27 +1646,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1254852000000</v>
+        <v>1254852</v>
       </c>
       <c r="F36" t="n">
         <v>789</v>
       </c>
-      <c r="G36" t="n">
-        <v>2381000</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.381 </t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>18445000000</v>
+        <v>18445</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1620,27 +1682,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7046820000000</v>
+        <v>7046820</v>
       </c>
       <c r="F37" t="n">
         <v>299</v>
       </c>
-      <c r="G37" t="n">
-        <v>1906000</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.906 </t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>13567000000</v>
+        <v>13567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1654,7 +1718,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3223500000000</v>
+        <v>3223500</v>
       </c>
       <c r="F38" t="n">
         <v>168</v>
@@ -1663,18 +1727,18 @@
         <v>645886</v>
       </c>
       <c r="H38" t="n">
-        <v>6940000000</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1688,7 +1752,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2614576000000</v>
+        <v>2614576</v>
       </c>
       <c r="F39" t="n">
         <v>145</v>
@@ -1697,18 +1761,18 @@
         <v>97867</v>
       </c>
       <c r="H39" t="n">
-        <v>1576000000</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1722,7 +1786,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3405027000000</v>
+        <v>3405027</v>
       </c>
       <c r="F40" t="n">
         <v>76</v>
@@ -1731,18 +1795,18 @@
         <v>555894</v>
       </c>
       <c r="H40" t="n">
-        <v>1405000000</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1756,7 +1820,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4561074000000</v>
+        <v>4561074</v>
       </c>
       <c r="F41" t="n">
         <v>5</v>
@@ -1764,19 +1828,21 @@
       <c r="G41" t="n">
         <v>25209</v>
       </c>
-      <c r="H41" t="n">
-        <v>481920000</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">481.920 </t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20190603</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13980313</t>
+          <t>1398-03-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1790,7 +1856,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>9313400000000</v>
+        <v>9313400</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>

--- a/data/Industry-Indices.xlsx
+++ b/data/Industry-Indices.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,10 +419,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -453,10 +451,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C3" t="n">
+        <v>34</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -487,10 +483,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="C4" t="n">
+        <v>57</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -521,10 +515,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="C5" t="n">
+        <v>44</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -537,10 +529,8 @@
       <c r="F5" t="n">
         <v>20390</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">172.604 </t>
-        </is>
+      <c r="G5" t="n">
+        <v>172.604</v>
       </c>
       <c r="H5" t="n">
         <v>989110</v>
@@ -557,10 +547,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C6" t="n">
+        <v>27</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -573,10 +561,8 @@
       <c r="F6" t="n">
         <v>15898</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">112.454 </t>
-        </is>
+      <c r="G6" t="n">
+        <v>112.454</v>
       </c>
       <c r="H6" t="n">
         <v>729291</v>
@@ -593,10 +579,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C7" t="n">
+        <v>43</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -609,10 +593,8 @@
       <c r="F7" t="n">
         <v>15010</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">90.188 </t>
-        </is>
+      <c r="G7" t="n">
+        <v>90.18799999999999</v>
       </c>
       <c r="H7" t="n">
         <v>619402</v>
@@ -629,10 +611,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="C8" t="n">
+        <v>53</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -645,10 +625,8 @@
       <c r="F8" t="n">
         <v>16479</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">141.383 </t>
-        </is>
+      <c r="G8" t="n">
+        <v>141.383</v>
       </c>
       <c r="H8" t="n">
         <v>602031</v>
@@ -665,10 +643,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+      <c r="C9" t="n">
+        <v>56</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -681,10 +657,8 @@
       <c r="F9" t="n">
         <v>19931</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">298.003 </t>
-        </is>
+      <c r="G9" t="n">
+        <v>298.003</v>
       </c>
       <c r="H9" t="n">
         <v>579976</v>
@@ -701,10 +675,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="C10" t="n">
+        <v>72</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -717,10 +689,8 @@
       <c r="F10" t="n">
         <v>10125</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">127.488 </t>
-        </is>
+      <c r="G10" t="n">
+        <v>127.488</v>
       </c>
       <c r="H10" t="n">
         <v>551518</v>
@@ -737,10 +707,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C11" t="n">
+        <v>40</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -753,10 +721,8 @@
       <c r="F11" t="n">
         <v>2738</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">42.805 </t>
-        </is>
+      <c r="G11" t="n">
+        <v>42.805</v>
       </c>
       <c r="H11" t="n">
         <v>513549</v>
@@ -773,10 +739,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C12" t="n">
+        <v>23</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -789,10 +753,8 @@
       <c r="F12" t="n">
         <v>10137</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">32.724 </t>
-        </is>
+      <c r="G12" t="n">
+        <v>32.724</v>
       </c>
       <c r="H12" t="n">
         <v>436921</v>
@@ -809,10 +771,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C13" t="n">
+        <v>31</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -825,10 +785,8 @@
       <c r="F13" t="n">
         <v>5850</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">41.629 </t>
-        </is>
+      <c r="G13" t="n">
+        <v>41.629</v>
       </c>
       <c r="H13" t="n">
         <v>404823</v>
@@ -845,10 +803,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
+      <c r="C14" t="n">
+        <v>54</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -861,10 +817,8 @@
       <c r="F14" t="n">
         <v>9250</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">40.843 </t>
-        </is>
+      <c r="G14" t="n">
+        <v>40.843</v>
       </c>
       <c r="H14" t="n">
         <v>336782</v>
@@ -881,10 +835,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="C15" t="n">
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,10 +849,8 @@
       <c r="F15" t="n">
         <v>11983</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">70.270 </t>
-        </is>
+      <c r="G15" t="n">
+        <v>70.27</v>
       </c>
       <c r="H15" t="n">
         <v>328300</v>
@@ -917,10 +867,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="C16" t="n">
+        <v>58</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -933,10 +881,8 @@
       <c r="F16" t="n">
         <v>8676</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">168.368 </t>
-        </is>
+      <c r="G16" t="n">
+        <v>168.368</v>
       </c>
       <c r="H16" t="n">
         <v>271096</v>
@@ -953,10 +899,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C17" t="n">
+        <v>42</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -969,10 +913,8 @@
       <c r="F17" t="n">
         <v>4472</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">36.102 </t>
-        </is>
+      <c r="G17" t="n">
+        <v>36.102</v>
       </c>
       <c r="H17" t="n">
         <v>237861</v>
@@ -989,10 +931,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C18" t="n">
+        <v>29</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1005,10 +945,8 @@
       <c r="F18" t="n">
         <v>6272</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">37.891 </t>
-        </is>
+      <c r="G18" t="n">
+        <v>37.891</v>
       </c>
       <c r="H18" t="n">
         <v>231235</v>
@@ -1025,10 +963,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C19" t="n">
+        <v>39</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1041,10 +977,8 @@
       <c r="F19" t="n">
         <v>3757</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">68.575 </t>
-        </is>
+      <c r="G19" t="n">
+        <v>68.575</v>
       </c>
       <c r="H19" t="n">
         <v>200216</v>
@@ -1061,10 +995,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
+      <c r="C20" t="n">
+        <v>70</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1077,10 +1009,8 @@
       <c r="F20" t="n">
         <v>6455</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88.702 </t>
-        </is>
+      <c r="G20" t="n">
+        <v>88.70200000000001</v>
       </c>
       <c r="H20" t="n">
         <v>163857</v>
@@ -1097,10 +1027,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="C21" t="n">
+        <v>74</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1113,10 +1041,8 @@
       <c r="F21" t="n">
         <v>2758</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24.869 </t>
-        </is>
+      <c r="G21" t="n">
+        <v>24.869</v>
       </c>
       <c r="H21" t="n">
         <v>158853</v>
@@ -1133,10 +1059,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="C22" t="n">
+        <v>73</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1149,10 +1073,8 @@
       <c r="F22" t="n">
         <v>2063</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24.196 </t>
-        </is>
+      <c r="G22" t="n">
+        <v>24.196</v>
       </c>
       <c r="H22" t="n">
         <v>153477</v>
@@ -1169,10 +1091,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C23" t="n">
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1185,10 +1105,8 @@
       <c r="F23" t="n">
         <v>3553</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21.118 </t>
-        </is>
+      <c r="G23" t="n">
+        <v>21.118</v>
       </c>
       <c r="H23" t="n">
         <v>152628</v>
@@ -1205,10 +1123,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C24" t="n">
+        <v>28</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1221,10 +1137,8 @@
       <c r="F24" t="n">
         <v>4777</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">56.331 </t>
-        </is>
+      <c r="G24" t="n">
+        <v>56.331</v>
       </c>
       <c r="H24" t="n">
         <v>150879</v>
@@ -1241,10 +1155,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+      <c r="C25" t="n">
+        <v>60</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1257,10 +1169,8 @@
       <c r="F25" t="n">
         <v>5880</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38.844 </t>
-        </is>
+      <c r="G25" t="n">
+        <v>38.844</v>
       </c>
       <c r="H25" t="n">
         <v>141262</v>
@@ -1277,10 +1187,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C26" t="n">
+        <v>38</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1293,10 +1201,8 @@
       <c r="F26" t="n">
         <v>4669</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12.820 </t>
-        </is>
+      <c r="G26" t="n">
+        <v>12.82</v>
       </c>
       <c r="H26" t="n">
         <v>139909</v>
@@ -1313,10 +1219,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="C27" t="n">
+        <v>66</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1329,10 +1233,8 @@
       <c r="F27" t="n">
         <v>2991</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">47.100 </t>
-        </is>
+      <c r="G27" t="n">
+        <v>47.1</v>
       </c>
       <c r="H27" t="n">
         <v>104581</v>
@@ -1349,10 +1251,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+      <c r="C28" t="n">
+        <v>49</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1365,10 +1265,8 @@
       <c r="F28" t="n">
         <v>2535</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18.037 </t>
-        </is>
+      <c r="G28" t="n">
+        <v>18.037</v>
       </c>
       <c r="H28" t="n">
         <v>77872</v>
@@ -1385,10 +1283,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="C29" t="n">
+        <v>67</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1401,10 +1297,8 @@
       <c r="F29" t="n">
         <v>2975</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12.208 </t>
-        </is>
+      <c r="G29" t="n">
+        <v>12.208</v>
       </c>
       <c r="H29" t="n">
         <v>69444</v>
@@ -1421,10 +1315,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
+      <c r="C30" t="n">
+        <v>64</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1437,10 +1329,8 @@
       <c r="F30" t="n">
         <v>2216</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27.713 </t>
-        </is>
+      <c r="G30" t="n">
+        <v>27.713</v>
       </c>
       <c r="H30" t="n">
         <v>67117</v>
@@ -1457,10 +1347,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="C31" t="n">
+        <v>11</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1473,10 +1361,8 @@
       <c r="F31" t="n">
         <v>1230</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12.571 </t>
-        </is>
+      <c r="G31" t="n">
+        <v>12.571</v>
       </c>
       <c r="H31" t="n">
         <v>46808</v>
@@ -1493,10 +1379,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="C32" t="n">
+        <v>21</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1509,10 +1393,8 @@
       <c r="F32" t="n">
         <v>1317</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4.050 </t>
-        </is>
+      <c r="G32" t="n">
+        <v>4.05</v>
       </c>
       <c r="H32" t="n">
         <v>41133</v>
@@ -1529,10 +1411,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="C33" t="n">
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1545,10 +1425,8 @@
       <c r="F33" t="n">
         <v>657</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3.840 </t>
-        </is>
+      <c r="G33" t="n">
+        <v>3.84</v>
       </c>
       <c r="H33" t="n">
         <v>33343</v>
@@ -1565,10 +1443,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="C34" t="n">
+        <v>10</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1581,10 +1457,8 @@
       <c r="F34" t="n">
         <v>639</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2.203 </t>
-        </is>
+      <c r="G34" t="n">
+        <v>2.203</v>
       </c>
       <c r="H34" t="n">
         <v>25174</v>
@@ -1601,10 +1475,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="C35" t="n">
+        <v>47</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1635,10 +1507,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="C36" t="n">
+        <v>14</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1651,10 +1521,8 @@
       <c r="F36" t="n">
         <v>789</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2.381 </t>
-        </is>
+      <c r="G36" t="n">
+        <v>2.381</v>
       </c>
       <c r="H36" t="n">
         <v>18445</v>
@@ -1671,10 +1539,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="C37" t="n">
+        <v>22</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1687,10 +1553,8 @@
       <c r="F37" t="n">
         <v>299</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.906 </t>
-        </is>
+      <c r="G37" t="n">
+        <v>1.906</v>
       </c>
       <c r="H37" t="n">
         <v>13567</v>
@@ -1707,10 +1571,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C38" t="n">
+        <v>32</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1741,10 +1603,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="C39" t="n">
+        <v>17</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1775,10 +1635,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C40" t="n">
+        <v>20</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1809,10 +1667,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="C41" t="n">
+        <v>19</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1828,10 +1684,8 @@
       <c r="G41" t="n">
         <v>25209</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">481.920 </t>
-        </is>
+      <c r="H41" t="n">
+        <v>481.92</v>
       </c>
     </row>
     <row r="42">
@@ -1845,10 +1699,8 @@
           <t>1398-03-13</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C42" t="n">
+        <v>33</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1865,6 +1717,5408 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>شاخص صنعت</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>7624589288</v>
+      </c>
+      <c r="F43" t="n">
+        <v>214959</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2296</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8708172</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>34</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>34-خودرو</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>270260472</v>
+      </c>
+      <c r="F44" t="n">
+        <v>45324</v>
+      </c>
+      <c r="G44" t="n">
+        <v>837.804</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1590599</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>44-شيميايي</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1886369832</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30567</v>
+      </c>
+      <c r="G45" t="n">
+        <v>383.448</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1359198</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>27</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>27-فلزات اساسي</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1384977918</v>
+      </c>
+      <c r="F46" t="n">
+        <v>14341</v>
+      </c>
+      <c r="G46" t="n">
+        <v>121.038</v>
+      </c>
+      <c r="H46" t="n">
+        <v>717435</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>57</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>57-بانكها</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>639925123</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30582</v>
+      </c>
+      <c r="G47" t="n">
+        <v>776.62</v>
+      </c>
+      <c r="H47" t="n">
+        <v>701116</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>43</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>43-مواد دارويي</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>333649160</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13438</v>
+      </c>
+      <c r="G48" t="n">
+        <v>86.22200000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>666177</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>72</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>72-رايانه</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>236519177</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9775</v>
+      </c>
+      <c r="G49" t="n">
+        <v>94.331</v>
+      </c>
+      <c r="H49" t="n">
+        <v>592963</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>53</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>53-سيمان</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>136219639</v>
+      </c>
+      <c r="F50" t="n">
+        <v>16579</v>
+      </c>
+      <c r="G50" t="n">
+        <v>156.785</v>
+      </c>
+      <c r="H50" t="n">
+        <v>546894</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>56</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>56-سرمايه گذاريها</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>152185432</v>
+      </c>
+      <c r="F51" t="n">
+        <v>16195</v>
+      </c>
+      <c r="G51" t="n">
+        <v>226.258</v>
+      </c>
+      <c r="H51" t="n">
+        <v>403821</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>13</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13-كانه فلزي</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>737826142</v>
+      </c>
+      <c r="F52" t="n">
+        <v>11236</v>
+      </c>
+      <c r="G52" t="n">
+        <v>68.97399999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>335617</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>23</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>23-فراورده نفتي</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>795860048</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6641</v>
+      </c>
+      <c r="G53" t="n">
+        <v>27.071</v>
+      </c>
+      <c r="H53" t="n">
+        <v>321759</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>42</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>42-غذايي بجز قند</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>99865406</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5273</v>
+      </c>
+      <c r="G54" t="n">
+        <v>53.28100000000001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>313447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>54-كاني غيرفلزي</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>39732564</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7775</v>
+      </c>
+      <c r="G55" t="n">
+        <v>38.999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>255102</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>31</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>31-دستگاههاي برقي</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>59409808</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5489</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.468</v>
+      </c>
+      <c r="H56" t="n">
+        <v>248510</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>60</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>60-حمل و نقل</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>99730543</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5361</v>
+      </c>
+      <c r="G57" t="n">
+        <v>51.045</v>
+      </c>
+      <c r="H57" t="n">
+        <v>232668</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>70</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>70-انبوه سازي</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>44145486</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8821</v>
+      </c>
+      <c r="G58" t="n">
+        <v>108.226</v>
+      </c>
+      <c r="H58" t="n">
+        <v>232579</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>73</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>73-اطلاعات و ارتباطات</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>26120000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3539</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.898</v>
+      </c>
+      <c r="H59" t="n">
+        <v>195235</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>28</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>28-محصولات فلزي</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>30285722</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5864</v>
+      </c>
+      <c r="G60" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>179943</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>38</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>38-قند و شكر</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>40311181</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4388</v>
+      </c>
+      <c r="G61" t="n">
+        <v>13.473</v>
+      </c>
+      <c r="H61" t="n">
+        <v>157765</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>58</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>58-سايرمالي</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>22649130</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6628</v>
+      </c>
+      <c r="G62" t="n">
+        <v>90.43000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>157617</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>40-تامين آب، برق، گاز</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>238736352</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1034</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.942</v>
+      </c>
+      <c r="H63" t="n">
+        <v>112416</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>29</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>29-ماشين آلات</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>58582247</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3028</v>
+      </c>
+      <c r="G64" t="n">
+        <v>14.409</v>
+      </c>
+      <c r="H64" t="n">
+        <v>97919</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>74</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>74-فني مهندسي</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>164176200</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2644</v>
+      </c>
+      <c r="G65" t="n">
+        <v>14.628</v>
+      </c>
+      <c r="H65" t="n">
+        <v>96379</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>25-لاستيك</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>33130017</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2972</v>
+      </c>
+      <c r="G66" t="n">
+        <v>13.154</v>
+      </c>
+      <c r="H66" t="n">
+        <v>92496</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>39</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>39-چند رشته اي ص</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>437147750</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2246</v>
+      </c>
+      <c r="G67" t="n">
+        <v>28.424</v>
+      </c>
+      <c r="H67" t="n">
+        <v>80013</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>بيمه و بازنشسته66</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>37377400</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2807</v>
+      </c>
+      <c r="G68" t="n">
+        <v>36.779</v>
+      </c>
+      <c r="H68" t="n">
+        <v>78242</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>01-زراعت</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>8105488</v>
+      </c>
+      <c r="F69" t="n">
+        <v>902</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.495</v>
+      </c>
+      <c r="H69" t="n">
+        <v>55769</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>11</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>استخراجنفتجزكشف11</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>19639543</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1404</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H70" t="n">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>67</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>67-اداره بازارهاي مالي</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>76181460</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1933</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="H71" t="n">
+        <v>41202</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>47</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>47خرده فروشي به جز وسايل نقليه</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>42530000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1212</v>
+      </c>
+      <c r="G72" t="n">
+        <v>936014</v>
+      </c>
+      <c r="H72" t="n">
+        <v>39809</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>49</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>49-کاشي و سراميك</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>11906356</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1109</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.552</v>
+      </c>
+      <c r="H73" t="n">
+        <v>37302</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>21</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>21-محصولات كاغذ</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>6266312</v>
+      </c>
+      <c r="F74" t="n">
+        <v>806</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.275</v>
+      </c>
+      <c r="H74" t="n">
+        <v>27642</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>64</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>64-راديويي</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>334219200</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1210</v>
+      </c>
+      <c r="G75" t="n">
+        <v>9.353999999999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>22541</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>22</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>22-انتشار و چاپ</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>7259670</v>
+      </c>
+      <c r="F76" t="n">
+        <v>461</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>13934</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10-ذغال سنگ</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2157285</v>
+      </c>
+      <c r="F77" t="n">
+        <v>273</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="H77" t="n">
+        <v>12310</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>14</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>14-ساير معادن</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1291464</v>
+      </c>
+      <c r="F78" t="n">
+        <v>484</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="H78" t="n">
+        <v>11147</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>20</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>20-محصولات چوبي</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3574740</v>
+      </c>
+      <c r="F79" t="n">
+        <v>80</v>
+      </c>
+      <c r="G79" t="n">
+        <v>754461</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>17</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>17-منسوجات</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2605305</v>
+      </c>
+      <c r="F80" t="n">
+        <v>105</v>
+      </c>
+      <c r="G80" t="n">
+        <v>45705</v>
+      </c>
+      <c r="H80" t="n">
+        <v>732.1060000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>19</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>19-محصولات چرمي</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4623161</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>27010</v>
+      </c>
+      <c r="H81" t="n">
+        <v>522.914</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>33</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>33-ابزار پزشكي</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>9313400</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1398-03-18</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>32</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>32-وسايل ارتباطي</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3223500</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>شاخص صنعت</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>7791563766</v>
+      </c>
+      <c r="F84" t="n">
+        <v>211661</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2099</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9250453</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>34</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>34-خودرو</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>283194664</v>
+      </c>
+      <c r="F85" t="n">
+        <v>31946</v>
+      </c>
+      <c r="G85" t="n">
+        <v>641.54</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1439950</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>44</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>44-شيميايي</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1897530485</v>
+      </c>
+      <c r="F86" t="n">
+        <v>23884</v>
+      </c>
+      <c r="G86" t="n">
+        <v>208.416</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1095539</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>57</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>57-بانكها</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>651449025</v>
+      </c>
+      <c r="F87" t="n">
+        <v>35764</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1022</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1007723</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>43</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>43-مواد دارويي</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>340237076</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16158</v>
+      </c>
+      <c r="G88" t="n">
+        <v>108.873</v>
+      </c>
+      <c r="H88" t="n">
+        <v>859619</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>27</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>27-فلزات اساسي</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1397272575</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15622</v>
+      </c>
+      <c r="G89" t="n">
+        <v>128.508</v>
+      </c>
+      <c r="H89" t="n">
+        <v>729731</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>56</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>56-سرمايه گذاريها</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>154988281</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20129</v>
+      </c>
+      <c r="G90" t="n">
+        <v>318.608</v>
+      </c>
+      <c r="H90" t="n">
+        <v>619504</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>13</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>13-كانه فلزي</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>822680701</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20362</v>
+      </c>
+      <c r="G91" t="n">
+        <v>146.834</v>
+      </c>
+      <c r="H91" t="n">
+        <v>595758</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>53</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>53-سيمان</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>140875923</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11842</v>
+      </c>
+      <c r="G92" t="n">
+        <v>120.719</v>
+      </c>
+      <c r="H92" t="n">
+        <v>506211</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>72</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>72-رايانه</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>241291710</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9535</v>
+      </c>
+      <c r="G93" t="n">
+        <v>83.361</v>
+      </c>
+      <c r="H93" t="n">
+        <v>442010</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>60</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>60-حمل و نقل</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>104310046</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6404</v>
+      </c>
+      <c r="G94" t="n">
+        <v>93.155</v>
+      </c>
+      <c r="H94" t="n">
+        <v>441966</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>23</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>23-فراورده نفتي</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>798453574</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7791</v>
+      </c>
+      <c r="G95" t="n">
+        <v>34.161</v>
+      </c>
+      <c r="H95" t="n">
+        <v>391744</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>74</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>74-فني مهندسي</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>169758600</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3840</v>
+      </c>
+      <c r="G96" t="n">
+        <v>43.085</v>
+      </c>
+      <c r="H96" t="n">
+        <v>274000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>42</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>42-غذايي بجز قند</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>102677892</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5130</v>
+      </c>
+      <c r="G97" t="n">
+        <v>45.92100000000001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>263106</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>70</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>70-انبوه سازي</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>45688747</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8493</v>
+      </c>
+      <c r="G98" t="n">
+        <v>109.987</v>
+      </c>
+      <c r="H98" t="n">
+        <v>232671</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>31</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>31-دستگاههاي برقي</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>60539443</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5217</v>
+      </c>
+      <c r="G99" t="n">
+        <v>24.393</v>
+      </c>
+      <c r="H99" t="n">
+        <v>226788</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>54</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>54-كاني غيرفلزي</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>40661754</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6964</v>
+      </c>
+      <c r="G100" t="n">
+        <v>33.161</v>
+      </c>
+      <c r="H100" t="n">
+        <v>226147</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>73</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>73-اطلاعات و ارتباطات</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>26984000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3562</v>
+      </c>
+      <c r="G101" t="n">
+        <v>29.672</v>
+      </c>
+      <c r="H101" t="n">
+        <v>200158</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>38</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>38-قند و شكر</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>40985070</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4807</v>
+      </c>
+      <c r="G102" t="n">
+        <v>16.748</v>
+      </c>
+      <c r="H102" t="n">
+        <v>199901</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>58</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>58-سايرمالي</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>22929900</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7498</v>
+      </c>
+      <c r="G103" t="n">
+        <v>101.845</v>
+      </c>
+      <c r="H103" t="n">
+        <v>166177</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>28</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>28-محصولات فلزي</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>31169773</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5535</v>
+      </c>
+      <c r="G104" t="n">
+        <v>68.81699999999999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>152193</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>29</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>29-ماشين آلات</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>59594674</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3936</v>
+      </c>
+      <c r="G105" t="n">
+        <v>18.556</v>
+      </c>
+      <c r="H105" t="n">
+        <v>134427</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>39</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>39-چند رشته اي ص</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>439763750</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3303</v>
+      </c>
+      <c r="G106" t="n">
+        <v>48.346</v>
+      </c>
+      <c r="H106" t="n">
+        <v>128006</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>25</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>25-لاستيك</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>34350665</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3183</v>
+      </c>
+      <c r="G107" t="n">
+        <v>19.165</v>
+      </c>
+      <c r="H107" t="n">
+        <v>127805</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>01-زراعت</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>8346137.000000001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1692</v>
+      </c>
+      <c r="G108" t="n">
+        <v>8.058</v>
+      </c>
+      <c r="H108" t="n">
+        <v>123822</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>66</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>بيمه و بازنشسته66</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>38552550</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3823</v>
+      </c>
+      <c r="G109" t="n">
+        <v>49.07899999999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>117827</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>67</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>67-اداره بازارهاي مالي</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>79129580</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4913</v>
+      </c>
+      <c r="G110" t="n">
+        <v>27.325</v>
+      </c>
+      <c r="H110" t="n">
+        <v>109206</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>49</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>49-کاشي و سراميك</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>12568494</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1805</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12.808</v>
+      </c>
+      <c r="H111" t="n">
+        <v>78053</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>47</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>47خرده فروشي به جز وسايل نقليه</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>44483000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1710</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.623</v>
+      </c>
+      <c r="H112" t="n">
+        <v>72195</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>64</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>64-راديويي</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>335839200</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2029</v>
+      </c>
+      <c r="G113" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="H113" t="n">
+        <v>62446</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>40</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>40-تامين آب، برق، گاز</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>235406192</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1045</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.258999999999999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>59492</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>11</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>استخراجنفتجزكشف11</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>20395110</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1584</v>
+      </c>
+      <c r="G115" t="n">
+        <v>13.912</v>
+      </c>
+      <c r="H115" t="n">
+        <v>54447</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>21</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>21-محصولات كاغذ</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>6806384</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1102</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H116" t="n">
+        <v>52927</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>22</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>22-انتشار و چاپ</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>7515090</v>
+      </c>
+      <c r="F117" t="n">
+        <v>644</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="H117" t="n">
+        <v>19923</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>14</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>14-ساير معادن</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1282392</v>
+      </c>
+      <c r="F118" t="n">
+        <v>825</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="H118" t="n">
+        <v>19420</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>10-ذغال سنگ</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>2099935</v>
+      </c>
+      <c r="F119" t="n">
+        <v>780</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="H119" t="n">
+        <v>14513</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>17</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>17-منسوجات</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>2602003</v>
+      </c>
+      <c r="F120" t="n">
+        <v>206</v>
+      </c>
+      <c r="G120" t="n">
+        <v>213636</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>20</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>20-محصولات چوبي</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>3752534</v>
+      </c>
+      <c r="F121" t="n">
+        <v>16</v>
+      </c>
+      <c r="G121" t="n">
+        <v>581051</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>19</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>19-محصولات چرمي</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>4682775</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" t="n">
+        <v>25509</v>
+      </c>
+      <c r="H122" t="n">
+        <v>500.589</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>33</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>33-ابزار پزشكي</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>9313400</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2019-06-09</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1398-03-19</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>32</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>32-وسايل ارتباطي</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3223500</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>شاخص صنعت</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>7786402067</v>
+      </c>
+      <c r="F125" t="n">
+        <v>295215</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2924</v>
+      </c>
+      <c r="H125" t="n">
+        <v>12151619</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>34</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>34-خودرو</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>286217727</v>
+      </c>
+      <c r="F126" t="n">
+        <v>72415</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1126</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2659959</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>44</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>44-شيميايي</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1887096605</v>
+      </c>
+      <c r="F127" t="n">
+        <v>27863</v>
+      </c>
+      <c r="G127" t="n">
+        <v>261.449</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1232770</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>57</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>57-بانكها</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>652606266</v>
+      </c>
+      <c r="F128" t="n">
+        <v>40099</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1083</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1010129</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>43</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>43-مواد دارويي</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>345118632</v>
+      </c>
+      <c r="F129" t="n">
+        <v>23391</v>
+      </c>
+      <c r="G129" t="n">
+        <v>126.985</v>
+      </c>
+      <c r="H129" t="n">
+        <v>956598</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>27</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>27-فلزات اساسي</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1372718462</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18192</v>
+      </c>
+      <c r="G130" t="n">
+        <v>142.935</v>
+      </c>
+      <c r="H130" t="n">
+        <v>904141</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>53</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>53-سيمان</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>144096143</v>
+      </c>
+      <c r="F131" t="n">
+        <v>20209</v>
+      </c>
+      <c r="G131" t="n">
+        <v>201.07</v>
+      </c>
+      <c r="H131" t="n">
+        <v>797644</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>72</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>72-رايانه</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>244206769</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14088</v>
+      </c>
+      <c r="G132" t="n">
+        <v>118.72</v>
+      </c>
+      <c r="H132" t="n">
+        <v>678330</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>13</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>13-كانه فلزي</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>823594557</v>
+      </c>
+      <c r="F133" t="n">
+        <v>24326</v>
+      </c>
+      <c r="G133" t="n">
+        <v>173.139</v>
+      </c>
+      <c r="H133" t="n">
+        <v>647867</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>56</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>56-سرمايه گذاريها</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>155507140</v>
+      </c>
+      <c r="F134" t="n">
+        <v>21095</v>
+      </c>
+      <c r="G134" t="n">
+        <v>316.204</v>
+      </c>
+      <c r="H134" t="n">
+        <v>631956</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>23</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>23-فراورده نفتي</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>794615879</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8343</v>
+      </c>
+      <c r="G135" t="n">
+        <v>36.841</v>
+      </c>
+      <c r="H135" t="n">
+        <v>441486</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>42</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>42-غذايي بجز قند</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>104043807</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8366</v>
+      </c>
+      <c r="G136" t="n">
+        <v>48.84399999999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>400284</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>40</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>40-تامين آب، برق، گاز</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>228245844</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3182</v>
+      </c>
+      <c r="G137" t="n">
+        <v>34.275</v>
+      </c>
+      <c r="H137" t="n">
+        <v>381099</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>54</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>54-كاني غيرفلزي</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>40562494</v>
+      </c>
+      <c r="F138" t="n">
+        <v>8781</v>
+      </c>
+      <c r="G138" t="n">
+        <v>47.168</v>
+      </c>
+      <c r="H138" t="n">
+        <v>344565</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>31</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>31-دستگاههاي برقي</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>60698046</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6336</v>
+      </c>
+      <c r="G139" t="n">
+        <v>35.546</v>
+      </c>
+      <c r="H139" t="n">
+        <v>326245</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>29</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>29-ماشين آلات</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>61511312</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6445</v>
+      </c>
+      <c r="G140" t="n">
+        <v>37.762</v>
+      </c>
+      <c r="H140" t="n">
+        <v>247976</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>28</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>28-محصولات فلزي</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>31763863</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6083</v>
+      </c>
+      <c r="G141" t="n">
+        <v>117.101</v>
+      </c>
+      <c r="H141" t="n">
+        <v>240505</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>70</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>70-انبوه سازي</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>45840281</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9567</v>
+      </c>
+      <c r="G142" t="n">
+        <v>122.564</v>
+      </c>
+      <c r="H142" t="n">
+        <v>239882</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>25</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>25-لاستيك</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>35031155</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5448</v>
+      </c>
+      <c r="G143" t="n">
+        <v>44.678</v>
+      </c>
+      <c r="H143" t="n">
+        <v>230359</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>74</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>74-فني مهندسي</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>178014200</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2150</v>
+      </c>
+      <c r="G144" t="n">
+        <v>34.085</v>
+      </c>
+      <c r="H144" t="n">
+        <v>225776</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>58</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>58-سايرمالي</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>22727980</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8993</v>
+      </c>
+      <c r="G145" t="n">
+        <v>130.941</v>
+      </c>
+      <c r="H145" t="n">
+        <v>218954</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>67</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>67-اداره بازارهاي مالي</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>78586500</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7745</v>
+      </c>
+      <c r="G146" t="n">
+        <v>98.175</v>
+      </c>
+      <c r="H146" t="n">
+        <v>214778</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>60</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>60-حمل و نقل</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>104438421</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5928</v>
+      </c>
+      <c r="G147" t="n">
+        <v>47.233</v>
+      </c>
+      <c r="H147" t="n">
+        <v>193240</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>39</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>39-چند رشته اي ص</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>435511000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4623</v>
+      </c>
+      <c r="G148" t="n">
+        <v>68.61399999999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>179735</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>66</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>بيمه و بازنشسته66</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>38963150</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4720</v>
+      </c>
+      <c r="G149" t="n">
+        <v>68.49600000000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>171330</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>73</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>73-اطلاعات و ارتباطات</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>27232000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3095</v>
+      </c>
+      <c r="G150" t="n">
+        <v>23.656</v>
+      </c>
+      <c r="H150" t="n">
+        <v>161059</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>38</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>38-قند و شكر</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>41140038</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4396</v>
+      </c>
+      <c r="G151" t="n">
+        <v>12.495</v>
+      </c>
+      <c r="H151" t="n">
+        <v>146753</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>21</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>21-محصولات كاغذ</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>6937406</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3013</v>
+      </c>
+      <c r="G152" t="n">
+        <v>7.171</v>
+      </c>
+      <c r="H152" t="n">
+        <v>112146</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>64</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>64-راديويي</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>351079200</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1571</v>
+      </c>
+      <c r="G153" t="n">
+        <v>32.915</v>
+      </c>
+      <c r="H153" t="n">
+        <v>92770</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>49</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>49-کاشي و سراميك</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>12845896</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1391</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7.367000000000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>59980</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>11</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>استخراجنفتجزكشف11</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>20514959</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1903</v>
+      </c>
+      <c r="G155" t="n">
+        <v>14.044</v>
+      </c>
+      <c r="H155" t="n">
+        <v>55288</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>14</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>14-ساير معادن</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1335852</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1064</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6.468</v>
+      </c>
+      <c r="H156" t="n">
+        <v>53337</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>01-زراعت</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>8754393</v>
+      </c>
+      <c r="F157" t="n">
+        <v>485</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="H157" t="n">
+        <v>49675</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>47</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>47خرده فروشي به جز وسايل نقليه</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>44819000</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1491</v>
+      </c>
+      <c r="G158" t="n">
+        <v>979153</v>
+      </c>
+      <c r="H158" t="n">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>10</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>10-ذغال سنگ</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>2005955</v>
+      </c>
+      <c r="F159" t="n">
+        <v>875</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2.802</v>
+      </c>
+      <c r="H159" t="n">
+        <v>30379</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>22</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>22-انتشار و چاپ</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>7738830</v>
+      </c>
+      <c r="F160" t="n">
+        <v>317</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="H160" t="n">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>32</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>32-وسايل ارتباطي</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>3551400</v>
+      </c>
+      <c r="F161" t="n">
+        <v>88</v>
+      </c>
+      <c r="G161" t="n">
+        <v>834686</v>
+      </c>
+      <c r="H161" t="n">
+        <v>9881</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>17</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>17-منسوجات</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2671853</v>
+      </c>
+      <c r="F162" t="n">
+        <v>161</v>
+      </c>
+      <c r="G162" t="n">
+        <v>281079</v>
+      </c>
+      <c r="H162" t="n">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>19</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>19-محصولات چرمي</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>4745357</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6</v>
+      </c>
+      <c r="G163" t="n">
+        <v>26460</v>
+      </c>
+      <c r="H163" t="n">
+        <v>525.9450000000001</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>33</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>33-ابزار پزشكي</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>9313400</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2019-06-10</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1398-03-20</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>20</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>20-محصولات چوبي</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3752534</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>شاخص صنعت</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>7803995011</v>
+      </c>
+      <c r="F166" t="n">
+        <v>273341</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2894</v>
+      </c>
+      <c r="H166" t="n">
+        <v>11083231</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>34-خودرو</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>289343749</v>
+      </c>
+      <c r="F167" t="n">
+        <v>66083</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1165</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2410399</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>57-بانكها</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>649932445</v>
+      </c>
+      <c r="F168" t="n">
+        <v>38116</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1055</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1152148</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>44-شيميايي</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>1888475013</v>
+      </c>
+      <c r="F169" t="n">
+        <v>22633</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215.598 </t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1082362</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>27-فلزات اساسي</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>1363058282</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17121</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">126.051 </t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>869834</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>53-سيمان</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>146612999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>21759</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">206.556 </t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>764196</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>13-كانه فلزي</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>820504416</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19700</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">197.958 </t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>746431</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>43-مواد دارويي</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>342860347</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20727</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111.880 </t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>700289</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>56-سرمايه گذاريها</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>156393460</v>
+      </c>
+      <c r="F174" t="n">
+        <v>19308</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">309.032 </t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>613864</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>72-رايانه</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>249868718</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10245</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72.924 </t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>359054</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>28-محصولات فلزي</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>31658689</v>
+      </c>
+      <c r="F176" t="n">
+        <v>10599</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129.990 </t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>339878</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>23-فراورده نفتي</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>787317966</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6027</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27.164 </t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>300239</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>54-كاني غيرفلزي</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>41041052</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7887</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43.876 </t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>297067</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>42-غذايي بجز قند</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>106309196</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7535</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43.821 </t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>293217</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>70-انبوه سازي</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>46189816</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9433</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">129.144 </t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>292913</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>74-فني مهندسي</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>184177400</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4529</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41.498 </t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>283136</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>14-ساير معادن</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1349946</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2912</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.016 </t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>275135</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>بيمه و بازنشسته66</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>38767050</v>
+      </c>
+      <c r="F183" t="n">
+        <v>6035</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">116.081 </t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>270705</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>31-دستگاههاي برقي</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>61555510</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5345</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25.681 </t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>246240</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>64-راديويي</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>372379200</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4511</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80.499 </t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>238058</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>73-اطلاعات و ارتباطات</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>27732000</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2824</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33.374 </t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>231389</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>29-ماشين آلات</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>62305233</v>
+      </c>
+      <c r="F187" t="n">
+        <v>5447</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27.615 </t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>193700</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>60-حمل و نقل</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>104136998</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4921</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39.980 </t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>168736</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>49-کاشي و سراميك</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>13290335</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2564</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29.051 </t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>167358</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>58-سايرمالي</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>22749630</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6411</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89.814 </t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>151158</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>38-قند و شكر</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>40802593</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4793</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12.640 </t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>144039</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>67-اداره بازارهاي مالي</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>77851320</v>
+      </c>
+      <c r="F192" t="n">
+        <v>5315</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48.471 </t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>137192</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>40-تامين آب، برق، گاز</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>224783192</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2060</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11.668 </t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>127250</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>25-لاستيك</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>35269476</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3241</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22.271 </t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>121925</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>39-چند رشته اي ص</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>434018500</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2582</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36.445 </t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>92828</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>47خرده فروشي به جز وسايل نقليه</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>44721000</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1457</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.911 </t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>85442</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>01-زراعت</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>9048284</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1041</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.774 </t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>70870</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>استخراجنفتجزكشف11</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>20155413</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1607</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11.319 </t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>20-محصولات چوبي</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>4114857</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1074</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13.317 </t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>40681</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>21-محصولات كاغذ</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>6874894</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1125</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.432 </t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>40338</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>32-وسايل ارتباطي</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>3716700</v>
+      </c>
+      <c r="F201" t="n">
+        <v>417</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.265 </t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>28066</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>10-ذغال سنگ</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1978020</v>
+      </c>
+      <c r="F202" t="n">
+        <v>496</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.116 </t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>22-انتشار و چاپ</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>7414110</v>
+      </c>
+      <c r="F203" t="n">
+        <v>538</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.399 </t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10474</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>17-منسوجات</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>2745894</v>
+      </c>
+      <c r="F204" t="n">
+        <v>202</v>
+      </c>
+      <c r="G204" t="n">
+        <v>174158</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>19-محصولات چرمي</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>4805713</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" t="n">
+        <v>25160</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">506.798 </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1398-03-21</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>33-ابزار پزشكي</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>9313400</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
         <v>0</v>
       </c>
     </row>
